--- a/BalanceSheet/OKTA_bal.xlsx
+++ b/BalanceSheet/OKTA_bal.xlsx
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2704000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>567000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-3133000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>3943000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-273000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>4924000.0</v>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1232000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>-499000.0</v>
@@ -1944,7 +1944,7 @@
         <v>-905000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>816000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
